--- a/dataanalysis/data/predictions/1000/07280953_0956.xlsx
+++ b/dataanalysis/data/predictions/1000/07280953_0956.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>序号</t>
   </si>
@@ -97,6 +97,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-07-28</t>
   </si>
   <si>
@@ -368,12 +371,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -731,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AB52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -819,19 +816,22 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:27">
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>300006</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>3.2</v>
@@ -849,7 +849,7 @@
         <v>22051.76</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -869,8 +869,23 @@
       <c r="P2">
         <v>-0.14</v>
       </c>
+      <c r="Q2">
+        <v>-1.98</v>
+      </c>
+      <c r="R2">
+        <v>5.08</v>
+      </c>
+      <c r="S2">
+        <v>-1.55</v>
+      </c>
       <c r="V2" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -878,22 +893,25 @@
       <c r="Z2">
         <v>4.367135524749756</v>
       </c>
-      <c r="AA2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3">
         <v>300019</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-0.45</v>
@@ -911,7 +929,7 @@
         <v>12011.11</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K3">
         <v>14</v>
@@ -931,8 +949,23 @@
       <c r="P3">
         <v>-0.18</v>
       </c>
+      <c r="Q3">
+        <v>0.95</v>
+      </c>
+      <c r="R3">
+        <v>22.38</v>
+      </c>
+      <c r="S3">
+        <v>1.82</v>
+      </c>
       <c r="V3" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -940,22 +973,25 @@
       <c r="Z3">
         <v>5.117343902587891</v>
       </c>
-      <c r="AA3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>300021</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>6.73</v>
@@ -973,7 +1009,7 @@
         <v>72941.72</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -993,8 +1029,23 @@
       <c r="P4">
         <v>0.61</v>
       </c>
+      <c r="Q4">
+        <v>-4.74</v>
+      </c>
+      <c r="R4">
+        <v>6.96</v>
+      </c>
+      <c r="S4">
+        <v>2.05</v>
+      </c>
       <c r="V4" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1002,22 +1053,25 @@
       <c r="Z4">
         <v>10.5384693145752</v>
       </c>
-      <c r="AA4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>300066</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0.79</v>
@@ -1035,7 +1089,7 @@
         <v>20904.03</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K5">
         <v>12</v>
@@ -1055,8 +1109,23 @@
       <c r="P5">
         <v>-0.32</v>
       </c>
+      <c r="Q5">
+        <v>-2.15</v>
+      </c>
+      <c r="R5">
+        <v>6.51</v>
+      </c>
+      <c r="S5">
+        <v>1.88</v>
+      </c>
       <c r="V5" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1064,22 +1133,25 @@
       <c r="Z5">
         <v>1.131562113761902</v>
       </c>
-      <c r="AA5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>300086</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>4.73</v>
@@ -1097,7 +1169,7 @@
         <v>58378.93</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -1117,8 +1189,23 @@
       <c r="P6">
         <v>1.08</v>
       </c>
+      <c r="Q6">
+        <v>0.76</v>
+      </c>
+      <c r="R6">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S6">
+        <v>5.02</v>
+      </c>
       <c r="V6" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1126,22 +1213,25 @@
       <c r="Z6">
         <v>0.6352547407150269</v>
       </c>
-      <c r="AA6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>300095</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>1.38</v>
@@ -1159,7 +1249,7 @@
         <v>10960.73</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -1179,8 +1269,23 @@
       <c r="P7">
         <v>-0.14</v>
       </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>11.13</v>
+      </c>
+      <c r="S7">
+        <v>0.72</v>
+      </c>
       <c r="V7" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1188,22 +1293,25 @@
       <c r="Z7">
         <v>5.951197147369385</v>
       </c>
-      <c r="AA7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>300158</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>5.83</v>
@@ -1221,7 +1329,7 @@
         <v>67810.21000000001</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -1241,8 +1349,23 @@
       <c r="P8">
         <v>0.33</v>
       </c>
+      <c r="Q8">
+        <v>6.66</v>
+      </c>
+      <c r="R8">
+        <v>7.79</v>
+      </c>
+      <c r="S8">
+        <v>4.7</v>
+      </c>
       <c r="V8" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -1250,22 +1373,25 @@
       <c r="Z8">
         <v>8.031343460083008</v>
       </c>
-      <c r="AA8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>300224</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>-1.11</v>
@@ -1283,7 +1409,7 @@
         <v>37978.99</v>
       </c>
       <c r="J9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1303,8 +1429,23 @@
       <c r="P9">
         <v>-0.41</v>
       </c>
+      <c r="Q9">
+        <v>-1.3</v>
+      </c>
+      <c r="R9">
+        <v>17.05</v>
+      </c>
+      <c r="S9">
+        <v>0.89</v>
+      </c>
       <c r="V9" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1312,22 +1453,25 @@
       <c r="Z9">
         <v>1.254969954490662</v>
       </c>
-      <c r="AA9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>300254</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>3.42</v>
@@ -1345,7 +1489,7 @@
         <v>27429.78</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -1365,8 +1509,23 @@
       <c r="P10">
         <v>0.03</v>
       </c>
+      <c r="Q10">
+        <v>3.28</v>
+      </c>
+      <c r="R10">
+        <v>12.55</v>
+      </c>
+      <c r="S10">
+        <v>6.54</v>
+      </c>
       <c r="V10" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1374,22 +1533,25 @@
       <c r="Z10">
         <v>1.73783540725708</v>
       </c>
-      <c r="AA10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>300267</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>15.69</v>
@@ -1407,7 +1569,7 @@
         <v>81779.02</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1427,8 +1589,23 @@
       <c r="P11">
         <v>2.43</v>
       </c>
+      <c r="Q11">
+        <v>-1.84</v>
+      </c>
+      <c r="R11">
+        <v>4.5</v>
+      </c>
+      <c r="S11">
+        <v>3.45</v>
+      </c>
       <c r="V11" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1436,22 +1613,25 @@
       <c r="Z11">
         <v>4.929318428039551</v>
       </c>
-      <c r="AA11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>300283</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>1.5</v>
@@ -1469,7 +1649,7 @@
         <v>11834.28</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12">
         <v>7</v>
@@ -1489,8 +1669,23 @@
       <c r="P12">
         <v>0.06</v>
       </c>
+      <c r="Q12">
+        <v>-2.21</v>
+      </c>
+      <c r="R12">
+        <v>7.98</v>
+      </c>
+      <c r="S12">
+        <v>7.26</v>
+      </c>
       <c r="V12" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1498,22 +1693,25 @@
       <c r="Z12">
         <v>3.979926109313965</v>
       </c>
-      <c r="AA12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>300329</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>-1.84</v>
@@ -1531,7 +1729,7 @@
         <v>11606.91</v>
       </c>
       <c r="J13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1551,8 +1749,23 @@
       <c r="P13">
         <v>-0.49</v>
       </c>
+      <c r="Q13">
+        <v>-1.91</v>
+      </c>
+      <c r="R13">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="S13">
+        <v>1.77</v>
+      </c>
       <c r="V13" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1560,22 +1773,25 @@
       <c r="Z13">
         <v>4.897842407226562</v>
       </c>
-      <c r="AA13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>300363</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>-0.34</v>
@@ -1593,7 +1809,7 @@
         <v>31446.09</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -1613,8 +1829,23 @@
       <c r="P14">
         <v>-0.09</v>
       </c>
+      <c r="Q14">
+        <v>2.58</v>
+      </c>
+      <c r="R14">
+        <v>26.25</v>
+      </c>
+      <c r="S14">
+        <v>11.32</v>
+      </c>
       <c r="V14" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>1</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -1622,22 +1853,25 @@
       <c r="Z14">
         <v>8.062374114990234</v>
       </c>
-      <c r="AA14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>300414</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E15">
         <v>2.22</v>
@@ -1655,7 +1889,7 @@
         <v>20558.3</v>
       </c>
       <c r="J15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -1675,8 +1909,23 @@
       <c r="P15">
         <v>0.33</v>
       </c>
+      <c r="Q15">
+        <v>11.4</v>
+      </c>
+      <c r="R15">
+        <v>17.19</v>
+      </c>
+      <c r="S15">
+        <v>20.21</v>
+      </c>
       <c r="V15" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1684,22 +1933,25 @@
       <c r="Z15">
         <v>1.144325017929077</v>
       </c>
-      <c r="AA15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>300436</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>4.81</v>
@@ -1717,7 +1969,7 @@
         <v>56480.86</v>
       </c>
       <c r="J16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16">
         <v>18</v>
@@ -1737,8 +1989,23 @@
       <c r="P16">
         <v>-0.11</v>
       </c>
+      <c r="Q16">
+        <v>8.18</v>
+      </c>
+      <c r="R16">
+        <v>98.8</v>
+      </c>
+      <c r="S16">
+        <v>25.7</v>
+      </c>
       <c r="V16" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1746,22 +2013,25 @@
       <c r="Z16">
         <v>8.40602970123291</v>
       </c>
-      <c r="AA16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17">
         <v>300490</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>-1.79</v>
@@ -1779,7 +2049,7 @@
         <v>10668.48</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1799,8 +2069,23 @@
       <c r="P17">
         <v>-0.15</v>
       </c>
+      <c r="Q17">
+        <v>-1.22</v>
+      </c>
+      <c r="R17">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.2</v>
+      </c>
       <c r="V17" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
       </c>
       <c r="Y17">
         <v>1</v>
@@ -1808,22 +2093,25 @@
       <c r="Z17">
         <v>6.839877128601074</v>
       </c>
-      <c r="AA17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18">
         <v>300527</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>1.95</v>
@@ -1841,7 +2129,7 @@
         <v>23287.14</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K18">
         <v>20</v>
@@ -1861,8 +2149,23 @@
       <c r="P18">
         <v>0.03</v>
       </c>
+      <c r="Q18">
+        <v>4.1</v>
+      </c>
+      <c r="R18">
+        <v>12.44</v>
+      </c>
+      <c r="S18">
+        <v>7.89</v>
+      </c>
       <c r="V18" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -1870,22 +2173,25 @@
       <c r="Z18">
         <v>2.739453077316284</v>
       </c>
-      <c r="AA18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>300528</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19">
         <v>20</v>
@@ -1903,7 +2209,7 @@
         <v>33205.47</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -1923,8 +2229,23 @@
       <c r="P19">
         <v>2.34</v>
       </c>
+      <c r="Q19">
+        <v>20.02</v>
+      </c>
+      <c r="R19">
+        <v>21.1</v>
+      </c>
+      <c r="S19">
+        <v>20.02</v>
+      </c>
       <c r="V19" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="W19">
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>1</v>
@@ -1932,22 +2253,25 @@
       <c r="Z19">
         <v>14.36252403259277</v>
       </c>
-      <c r="AA19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+      <c r="AA19">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>300533</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>1.78</v>
@@ -1965,7 +2289,7 @@
         <v>15181.91</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20">
         <v>24</v>
@@ -1985,8 +2309,23 @@
       <c r="P20">
         <v>0.35</v>
       </c>
+      <c r="Q20">
+        <v>4.78</v>
+      </c>
+      <c r="R20">
+        <v>37.51</v>
+      </c>
+      <c r="S20">
+        <v>4.14</v>
+      </c>
       <c r="V20" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -1994,22 +2333,25 @@
       <c r="Z20">
         <v>4.071429252624512</v>
       </c>
-      <c r="AA20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>300539</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>12.1</v>
@@ -2027,7 +2369,7 @@
         <v>63260.36</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2047,8 +2389,23 @@
       <c r="P21">
         <v>0.64</v>
       </c>
+      <c r="Q21">
+        <v>19.1</v>
+      </c>
+      <c r="R21">
+        <v>29.72</v>
+      </c>
+      <c r="S21">
+        <v>11.81</v>
+      </c>
       <c r="V21" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2056,22 +2413,25 @@
       <c r="Z21">
         <v>1.763792037963867</v>
       </c>
-      <c r="AA21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>300548</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>-0.96</v>
@@ -2089,7 +2449,7 @@
         <v>37797.64</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>10</v>
@@ -2109,8 +2469,23 @@
       <c r="P22">
         <v>-0.16</v>
       </c>
+      <c r="Q22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="R22">
+        <v>93.39</v>
+      </c>
+      <c r="S22">
+        <v>14.07</v>
+      </c>
       <c r="V22" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>1</v>
@@ -2118,22 +2493,25 @@
       <c r="Z22">
         <v>3.741645097732544</v>
       </c>
-      <c r="AA22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>300591</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>3.13</v>
@@ -2151,7 +2529,7 @@
         <v>25952.57</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2171,8 +2549,23 @@
       <c r="P23">
         <v>0.07000000000000001</v>
       </c>
+      <c r="Q23">
+        <v>4.62</v>
+      </c>
+      <c r="R23">
+        <v>12</v>
+      </c>
+      <c r="S23">
+        <v>4.17</v>
+      </c>
       <c r="V23" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
@@ -2180,22 +2573,25 @@
       <c r="Z23">
         <v>10.56045627593994</v>
       </c>
-      <c r="AA23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>300631</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E24">
         <v>-0.33</v>
@@ -2213,7 +2609,7 @@
         <v>12686.82</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K24">
         <v>11</v>
@@ -2233,8 +2629,23 @@
       <c r="P24">
         <v>-0.15</v>
       </c>
+      <c r="Q24">
+        <v>-4.37</v>
+      </c>
+      <c r="R24">
+        <v>33.15</v>
+      </c>
+      <c r="S24">
+        <v>0.7</v>
+      </c>
       <c r="V24" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>1</v>
@@ -2242,22 +2653,25 @@
       <c r="Z24">
         <v>6.19863748550415</v>
       </c>
-      <c r="AA24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>300683</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E25">
         <v>-9.93</v>
@@ -2275,7 +2689,7 @@
         <v>29137.9</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -2295,8 +2709,23 @@
       <c r="P25">
         <v>-0.51</v>
       </c>
+      <c r="Q25">
+        <v>15.28</v>
+      </c>
+      <c r="R25">
+        <v>51.77</v>
+      </c>
+      <c r="S25">
+        <v>23.79</v>
+      </c>
       <c r="V25" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2304,22 +2733,25 @@
       <c r="Z25">
         <v>6.902464866638184</v>
       </c>
-      <c r="AA25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>300706</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26">
         <v>7.27</v>
@@ -2337,7 +2769,7 @@
         <v>88276.23</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2357,8 +2789,23 @@
       <c r="P26">
         <v>-2.69</v>
       </c>
+      <c r="Q26">
+        <v>-5.42</v>
+      </c>
+      <c r="R26">
+        <v>35.92</v>
+      </c>
+      <c r="S26">
+        <v>0.17</v>
+      </c>
       <c r="V26" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2366,22 +2813,25 @@
       <c r="Z26">
         <v>6.941851615905762</v>
       </c>
-      <c r="AA26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>300722</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>1.54</v>
@@ -2399,7 +2849,7 @@
         <v>19334.99</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -2419,8 +2869,23 @@
       <c r="P27">
         <v>0.09</v>
       </c>
+      <c r="Q27">
+        <v>4.88</v>
+      </c>
+      <c r="R27">
+        <v>40.13</v>
+      </c>
+      <c r="S27">
+        <v>4.89</v>
+      </c>
       <c r="V27" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2428,22 +2893,25 @@
       <c r="Z27">
         <v>2.380006313323975</v>
       </c>
-      <c r="AA27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>300748</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28">
         <v>-0.21</v>
@@ -2461,7 +2929,7 @@
         <v>40877.84</v>
       </c>
       <c r="J28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K28">
         <v>12</v>
@@ -2481,8 +2949,23 @@
       <c r="P28">
         <v>-0.01</v>
       </c>
+      <c r="Q28">
+        <v>-1.47</v>
+      </c>
+      <c r="R28">
+        <v>28.43</v>
+      </c>
+      <c r="S28">
+        <v>-0.73</v>
+      </c>
       <c r="V28" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2490,22 +2973,25 @@
       <c r="Z28">
         <v>5.86850643157959</v>
       </c>
-      <c r="AA28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>300803</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E29">
         <v>1.82</v>
@@ -2523,7 +3009,7 @@
         <v>100370.94</v>
       </c>
       <c r="J29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K29">
         <v>22</v>
@@ -2543,8 +3029,23 @@
       <c r="P29">
         <v>0.04</v>
       </c>
+      <c r="Q29">
+        <v>0.16</v>
+      </c>
+      <c r="R29">
+        <v>94.7</v>
+      </c>
+      <c r="S29">
+        <v>0.74</v>
+      </c>
       <c r="V29" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -2552,22 +3053,25 @@
       <c r="Z29">
         <v>2.322628974914551</v>
       </c>
-      <c r="AA29" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>300835</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>1.47</v>
@@ -2585,7 +3089,7 @@
         <v>18701.56</v>
       </c>
       <c r="J30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K30">
         <v>5</v>
@@ -2605,8 +3109,23 @@
       <c r="P30">
         <v>-0.05</v>
       </c>
+      <c r="Q30">
+        <v>-1.91</v>
+      </c>
+      <c r="R30">
+        <v>62.24</v>
+      </c>
+      <c r="S30">
+        <v>7.68</v>
+      </c>
       <c r="V30" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -2614,22 +3133,25 @@
       <c r="Z30">
         <v>1.122959971427917</v>
       </c>
-      <c r="AA30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>300872</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E31">
         <v>1.52</v>
@@ -2647,7 +3169,7 @@
         <v>45782.71</v>
       </c>
       <c r="J31" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2667,8 +3189,23 @@
       <c r="P31">
         <v>0.25</v>
       </c>
+      <c r="Q31">
+        <v>1.58</v>
+      </c>
+      <c r="R31">
+        <v>27.76</v>
+      </c>
+      <c r="S31">
+        <v>6.36</v>
+      </c>
       <c r="V31" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -2676,22 +3213,25 @@
       <c r="Z31">
         <v>5.72035551071167</v>
       </c>
-      <c r="AA31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>300877</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E32">
         <v>-1.82</v>
@@ -2709,7 +3249,7 @@
         <v>15342.3</v>
       </c>
       <c r="J32" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2729,8 +3269,23 @@
       <c r="P32">
         <v>-0.11</v>
       </c>
+      <c r="Q32">
+        <v>0.31</v>
+      </c>
+      <c r="R32">
+        <v>26.3</v>
+      </c>
+      <c r="S32">
+        <v>3.99</v>
+      </c>
       <c r="V32" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
       </c>
       <c r="Y32">
         <v>1</v>
@@ -2738,22 +3293,25 @@
       <c r="Z32">
         <v>5.52434778213501</v>
       </c>
-      <c r="AA32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C33">
         <v>300885</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>4.05</v>
@@ -2771,7 +3329,7 @@
         <v>27353.85</v>
       </c>
       <c r="J33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -2791,8 +3349,23 @@
       <c r="P33">
         <v>-0.28</v>
       </c>
+      <c r="Q33">
+        <v>20.01</v>
+      </c>
+      <c r="R33">
+        <v>20.51</v>
+      </c>
+      <c r="S33">
+        <v>12.45</v>
+      </c>
       <c r="V33" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -2800,22 +3373,25 @@
       <c r="Z33">
         <v>0.6098516583442688</v>
       </c>
-      <c r="AA33" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34">
         <v>301007</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E34">
         <v>3.91</v>
@@ -2833,7 +3409,7 @@
         <v>43226.57</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2853,8 +3429,23 @@
       <c r="P34">
         <v>-0.44</v>
       </c>
+      <c r="Q34">
+        <v>10.4</v>
+      </c>
+      <c r="R34">
+        <v>38.88</v>
+      </c>
+      <c r="S34">
+        <v>7.46</v>
+      </c>
       <c r="V34" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -2862,22 +3453,25 @@
       <c r="Z34">
         <v>-0.4073047935962677</v>
       </c>
-      <c r="AA34" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35">
         <v>301151</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E35">
         <v>1.49</v>
@@ -2895,7 +3489,7 @@
         <v>11002.25</v>
       </c>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -2915,8 +3509,23 @@
       <c r="P35">
         <v>0.1</v>
       </c>
+      <c r="Q35">
+        <v>0.44</v>
+      </c>
+      <c r="R35">
+        <v>23.74</v>
+      </c>
+      <c r="S35">
+        <v>5.93</v>
+      </c>
       <c r="V35" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -2924,22 +3533,25 @@
       <c r="Z35">
         <v>3.433067560195923</v>
       </c>
-      <c r="AA35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36">
         <v>301183</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>-0.46</v>
@@ -2957,7 +3569,7 @@
         <v>10413.24</v>
       </c>
       <c r="J36" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K36">
         <v>9</v>
@@ -2977,8 +3589,23 @@
       <c r="P36">
         <v>-0.26</v>
       </c>
+      <c r="Q36">
+        <v>1.71</v>
+      </c>
+      <c r="R36">
+        <v>69.39</v>
+      </c>
+      <c r="S36">
+        <v>6.18</v>
+      </c>
       <c r="V36" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
       </c>
       <c r="Y36">
         <v>1</v>
@@ -2986,22 +3613,25 @@
       <c r="Z36">
         <v>2.865918397903442</v>
       </c>
-      <c r="AA36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>301200</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E37">
         <v>4.77</v>
@@ -3019,7 +3649,7 @@
         <v>32794.86</v>
       </c>
       <c r="J37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -3039,8 +3669,23 @@
       <c r="P37">
         <v>-0.4</v>
       </c>
+      <c r="Q37">
+        <v>2.95</v>
+      </c>
+      <c r="R37">
+        <v>73.76000000000001</v>
+      </c>
+      <c r="S37">
+        <v>22.18</v>
+      </c>
       <c r="V37" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3048,22 +3693,25 @@
       <c r="Z37">
         <v>2.359302997589111</v>
       </c>
-      <c r="AA37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38">
         <v>301217</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E38">
         <v>1.72</v>
@@ -3081,7 +3729,7 @@
         <v>53140.79</v>
       </c>
       <c r="J38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K38">
         <v>16</v>
@@ -3101,8 +3749,23 @@
       <c r="P38">
         <v>-0.09</v>
       </c>
+      <c r="Q38">
+        <v>6.78</v>
+      </c>
+      <c r="R38">
+        <v>28.5</v>
+      </c>
+      <c r="S38">
+        <v>34.05</v>
+      </c>
       <c r="V38" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -3110,22 +3773,25 @@
       <c r="Z38">
         <v>4.169565677642822</v>
       </c>
-      <c r="AA38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>301306</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E39">
         <v>8.5</v>
@@ -3143,7 +3809,7 @@
         <v>32123.6</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39">
         <v>4</v>
@@ -3163,8 +3829,23 @@
       <c r="P39">
         <v>0.51</v>
       </c>
+      <c r="Q39">
+        <v>3.12</v>
+      </c>
+      <c r="R39">
+        <v>68.39</v>
+      </c>
+      <c r="S39">
+        <v>10.43</v>
+      </c>
       <c r="V39" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -3172,22 +3853,25 @@
       <c r="Z39">
         <v>2.78856897354126</v>
       </c>
-      <c r="AA39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40">
         <v>301345</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>-0.78</v>
@@ -3205,7 +3889,7 @@
         <v>16558.71</v>
       </c>
       <c r="J40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K40">
         <v>3</v>
@@ -3225,8 +3909,23 @@
       <c r="P40">
         <v>-0.15</v>
       </c>
+      <c r="Q40">
+        <v>1.62</v>
+      </c>
+      <c r="R40">
+        <v>164.43</v>
+      </c>
+      <c r="S40">
+        <v>2.83</v>
+      </c>
       <c r="V40" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>1</v>
@@ -3234,22 +3933,25 @@
       <c r="Z40">
         <v>6.410048484802246</v>
       </c>
-      <c r="AA40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C41">
         <v>301357</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41">
         <v>6.23</v>
@@ -3267,7 +3969,7 @@
         <v>28612.77</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3287,8 +3989,23 @@
       <c r="P41">
         <v>0.9399999999999999</v>
       </c>
+      <c r="Q41">
+        <v>7.12</v>
+      </c>
+      <c r="R41">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="S41">
+        <v>7.66</v>
+      </c>
       <c r="V41" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
       </c>
       <c r="Y41">
         <v>0</v>
@@ -3296,22 +4013,25 @@
       <c r="Z41">
         <v>6.607926368713379</v>
       </c>
-      <c r="AA41" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>301377</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E42">
         <v>0.61</v>
@@ -3329,7 +4049,7 @@
         <v>13021.95</v>
       </c>
       <c r="J42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K42">
         <v>10</v>
@@ -3349,8 +4069,23 @@
       <c r="P42">
         <v>0.27</v>
       </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>56.1</v>
+      </c>
+      <c r="S42">
+        <v>14.16</v>
+      </c>
       <c r="V42" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
       </c>
       <c r="Y42">
         <v>0</v>
@@ -3358,22 +4093,25 @@
       <c r="Z42">
         <v>2.950806617736816</v>
       </c>
-      <c r="AA42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43">
         <v>301421</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E43">
         <v>1.18</v>
@@ -3391,7 +4129,7 @@
         <v>18362.8</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K43">
         <v>26</v>
@@ -3411,8 +4149,23 @@
       <c r="P43">
         <v>0.23</v>
       </c>
+      <c r="Q43">
+        <v>-2.22</v>
+      </c>
+      <c r="R43">
+        <v>83.3</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
       <c r="V43" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
@@ -3420,22 +4173,25 @@
       <c r="Z43">
         <v>7.172198295593262</v>
       </c>
-      <c r="AA43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>301511</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E44">
         <v>4.55</v>
@@ -3453,7 +4209,7 @@
         <v>61602.72</v>
       </c>
       <c r="J44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K44">
         <v>25</v>
@@ -3473,8 +4229,23 @@
       <c r="P44">
         <v>-0.27</v>
       </c>
+      <c r="Q44">
+        <v>10.02</v>
+      </c>
+      <c r="R44">
+        <v>35.44</v>
+      </c>
+      <c r="S44">
+        <v>22.46</v>
+      </c>
       <c r="V44" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -3482,22 +4253,25 @@
       <c r="Z44">
         <v>2.820398092269897</v>
       </c>
-      <c r="AA44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>688202</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E45">
         <v>-1.16</v>
@@ -3515,7 +4289,7 @@
         <v>19506.56</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45">
         <v>15</v>
@@ -3535,8 +4309,23 @@
       <c r="P45">
         <v>-0.35</v>
       </c>
+      <c r="Q45">
+        <v>0.42</v>
+      </c>
+      <c r="R45">
+        <v>69.5</v>
+      </c>
+      <c r="S45">
+        <v>8.51</v>
+      </c>
       <c r="V45" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -3544,22 +4333,25 @@
       <c r="Z45">
         <v>2.983509063720703</v>
       </c>
-      <c r="AA45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46">
         <v>688210</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>-2.52</v>
@@ -3577,7 +4369,7 @@
         <v>17253.02</v>
       </c>
       <c r="J46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K46">
         <v>3</v>
@@ -3597,8 +4389,23 @@
       <c r="P46">
         <v>-0.4</v>
       </c>
+      <c r="Q46">
+        <v>8.08</v>
+      </c>
+      <c r="R46">
+        <v>36.88</v>
+      </c>
+      <c r="S46">
+        <v>8.470000000000001</v>
+      </c>
       <c r="V46" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
       </c>
       <c r="Y46">
         <v>0</v>
@@ -3606,22 +4413,25 @@
       <c r="Z46">
         <v>4.906607151031494</v>
       </c>
-      <c r="AA46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47">
         <v>688222</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>0.18</v>
@@ -3639,7 +4449,7 @@
         <v>12573.19</v>
       </c>
       <c r="J47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47">
         <v>7</v>
@@ -3659,8 +4469,23 @@
       <c r="P47">
         <v>-0.04</v>
       </c>
+      <c r="Q47">
+        <v>4.13</v>
+      </c>
+      <c r="R47">
+        <v>24.32</v>
+      </c>
+      <c r="S47">
+        <v>6.25</v>
+      </c>
       <c r="V47" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
@@ -3668,22 +4493,25 @@
       <c r="Z47">
         <v>1.946813821792603</v>
       </c>
-      <c r="AA47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48">
         <v>688313</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E48">
         <v>2.59</v>
@@ -3701,7 +4529,7 @@
         <v>55118.25</v>
       </c>
       <c r="J48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K48">
         <v>29</v>
@@ -3721,8 +4549,23 @@
       <c r="P48">
         <v>0.12</v>
       </c>
+      <c r="Q48">
+        <v>10</v>
+      </c>
+      <c r="R48">
+        <v>66.95</v>
+      </c>
+      <c r="S48">
+        <v>17.29</v>
+      </c>
       <c r="V48" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>1</v>
       </c>
       <c r="Y48">
         <v>0</v>
@@ -3730,22 +4573,25 @@
       <c r="Z48">
         <v>6.871462821960449</v>
       </c>
-      <c r="AA48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49">
         <v>688499</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E49">
         <v>2.06</v>
@@ -3763,7 +4609,7 @@
         <v>23528.32</v>
       </c>
       <c r="J49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K49">
         <v>30</v>
@@ -3783,8 +4629,23 @@
       <c r="P49">
         <v>0.06</v>
       </c>
+      <c r="Q49">
+        <v>3.4</v>
+      </c>
+      <c r="R49">
+        <v>60.29</v>
+      </c>
+      <c r="S49">
+        <v>12.42</v>
+      </c>
       <c r="V49" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>1</v>
       </c>
       <c r="Y49">
         <v>0</v>
@@ -3792,22 +4653,25 @@
       <c r="Z49">
         <v>1.583284616470337</v>
       </c>
-      <c r="AA49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C50">
         <v>688502</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E50">
         <v>0.91</v>
@@ -3825,7 +4689,7 @@
         <v>21628.53</v>
       </c>
       <c r="J50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3845,8 +4709,23 @@
       <c r="P50">
         <v>0.44</v>
       </c>
+      <c r="Q50">
+        <v>-2</v>
+      </c>
+      <c r="R50">
+        <v>380</v>
+      </c>
+      <c r="S50">
+        <v>6.69</v>
+      </c>
       <c r="V50" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
@@ -3854,22 +4733,25 @@
       <c r="Z50">
         <v>3.363803148269653</v>
       </c>
-      <c r="AA50" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51">
         <v>688585</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51">
         <v>1.27</v>
@@ -3887,7 +4769,7 @@
         <v>63698.09</v>
       </c>
       <c r="J51" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -3907,8 +4789,23 @@
       <c r="P51">
         <v>0.01</v>
       </c>
+      <c r="Q51">
+        <v>6.19</v>
+      </c>
+      <c r="R51">
+        <v>93.5</v>
+      </c>
+      <c r="S51">
+        <v>39.76</v>
+      </c>
       <c r="V51" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
@@ -3916,22 +4813,25 @@
       <c r="Z51">
         <v>6.223885536193848</v>
       </c>
-      <c r="AA51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>688660</v>
       </c>
       <c r="D52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E52">
         <v>6.06</v>
@@ -3949,7 +4849,7 @@
         <v>42839.87</v>
       </c>
       <c r="J52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -3969,8 +4869,23 @@
       <c r="P52">
         <v>0.04</v>
       </c>
+      <c r="Q52">
+        <v>10.05</v>
+      </c>
+      <c r="R52">
+        <v>17.19</v>
+      </c>
+      <c r="S52">
+        <v>25.84</v>
+      </c>
       <c r="V52" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -3978,8 +4893,11 @@
       <c r="Z52">
         <v>2.24002480506897</v>
       </c>
-      <c r="AA52" t="s">
-        <v>118</v>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
